--- a/cs4735/sabinadev/assign2/Matchings.xlsx
+++ b/cs4735/sabinadev/assign2/Matchings.xlsx
@@ -31,9 +31,6 @@
   </si>
   <si>
     <t>Color Matching</t>
-  </si>
-  <si>
-    <t>Color Matching</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -47,6 +44,9 @@
   <si>
     <t>Player1</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Texture Matching</t>
   </si>
   <si>
     <t>Texture Matching</t>
@@ -438,7 +438,7 @@
   <dimension ref="A4:G192"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A148" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G185" sqref="G185"/>
+      <selection activeCell="G170" sqref="G170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -454,12 +454,12 @@
   <sheetData>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -468,10 +468,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1402,7 +1402,7 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1412,10 +1412,10 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2374,7 +2374,7 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -2383,10 +2383,10 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -3322,12 +3322,9 @@
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B151" s="2"/>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
-      <c r="E151" s="1"/>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="1" t="s">
@@ -3348,22 +3345,22 @@
         <v>1</v>
       </c>
       <c r="B153">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C153">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E153">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F153">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G153">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3371,22 +3368,22 @@
         <v>2</v>
       </c>
       <c r="B154">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C154">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D154">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E154">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F154">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G154">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3394,22 +3391,22 @@
         <v>3</v>
       </c>
       <c r="B155">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C155">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D155">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="E155">
+        <v>32</v>
+      </c>
+      <c r="F155">
         <v>36</v>
       </c>
-      <c r="F155">
-        <v>31</v>
-      </c>
       <c r="G155">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3417,22 +3414,22 @@
         <v>4</v>
       </c>
       <c r="B156">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C156">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D156">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E156">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="F156">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="G156">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -3443,19 +3440,19 @@
         <v>6</v>
       </c>
       <c r="C157">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D157">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E157">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F157">
         <v>31</v>
       </c>
       <c r="G157">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -3463,22 +3460,22 @@
         <v>6</v>
       </c>
       <c r="B158">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C158">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D158">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E158">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F158">
         <v>22</v>
       </c>
       <c r="G158">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -3486,22 +3483,22 @@
         <v>7</v>
       </c>
       <c r="B159">
+        <v>16</v>
+      </c>
+      <c r="C159">
+        <v>6</v>
+      </c>
+      <c r="D159">
         <v>8</v>
       </c>
-      <c r="C159">
-        <v>40</v>
-      </c>
-      <c r="D159">
-        <v>15</v>
-      </c>
       <c r="E159">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F159">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G159">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -3509,22 +3506,22 @@
         <v>8</v>
       </c>
       <c r="B160">
+        <v>16</v>
+      </c>
+      <c r="C160">
         <v>7</v>
       </c>
-      <c r="C160">
-        <v>6</v>
-      </c>
       <c r="D160">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E160">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F160">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="G160">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -3535,19 +3532,19 @@
         <v>3</v>
       </c>
       <c r="C161">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E161">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F161">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G161">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -3555,22 +3552,22 @@
         <v>10</v>
       </c>
       <c r="B162">
+        <v>11</v>
+      </c>
+      <c r="C162">
         <v>1</v>
       </c>
-      <c r="C162">
-        <v>3</v>
-      </c>
       <c r="D162">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E162">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F162">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G162">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -3578,22 +3575,22 @@
         <v>11</v>
       </c>
       <c r="B163">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C163">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D163">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E163">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F163">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G163">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -3601,22 +3598,22 @@
         <v>12</v>
       </c>
       <c r="B164">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C164">
+        <v>5</v>
+      </c>
+      <c r="D164">
         <v>2</v>
       </c>
-      <c r="D164">
-        <v>39</v>
-      </c>
       <c r="E164">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F164">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G164">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -3624,22 +3621,22 @@
         <v>13</v>
       </c>
       <c r="B165">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="C165">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D165">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E165">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F165">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="G165">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -3647,22 +3644,22 @@
         <v>14</v>
       </c>
       <c r="B166">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C166">
+        <v>25</v>
+      </c>
+      <c r="D166">
         <v>12</v>
       </c>
-      <c r="D166">
-        <v>2</v>
-      </c>
       <c r="E166">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F166">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="G166">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -3670,22 +3667,22 @@
         <v>15</v>
       </c>
       <c r="B167">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C167">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D167">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E167">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F167">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G167">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -3693,22 +3690,22 @@
         <v>16</v>
       </c>
       <c r="B168">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D168">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E168">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F168">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G168">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -3716,22 +3713,22 @@
         <v>17</v>
       </c>
       <c r="B169">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C169">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D169">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E169">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F169">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G169">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -3739,22 +3736,22 @@
         <v>18</v>
       </c>
       <c r="B170">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C170">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D170">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E170">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F170">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="G170">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -3762,482 +3759,482 @@
         <v>19</v>
       </c>
       <c r="B171">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C171">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D171">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E171">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F171">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G171">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="172" spans="1:7">
       <c r="A172">
+        <v>19</v>
+      </c>
+      <c r="B172">
         <v>20</v>
       </c>
-      <c r="B172">
-        <v>22</v>
-      </c>
       <c r="C172">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D172">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E172">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F172">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G172">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B173">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C173">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D173">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E173">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F173">
+        <v>9</v>
+      </c>
+      <c r="G173">
         <v>3</v>
-      </c>
-      <c r="G173">
-        <v>13</v>
       </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B174">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C174">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D174">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E174">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="F174">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G174">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175">
+        <v>22</v>
+      </c>
+      <c r="B175">
         <v>23</v>
       </c>
-      <c r="B175">
-        <v>6</v>
-      </c>
       <c r="C175">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D175">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E175">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="F175">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G175">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176">
+        <v>23</v>
+      </c>
+      <c r="B176">
         <v>24</v>
       </c>
-      <c r="B176">
-        <v>3</v>
-      </c>
       <c r="C176">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D176">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E176">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F176">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G176">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177">
+        <v>24</v>
+      </c>
+      <c r="B177">
+        <v>33</v>
+      </c>
+      <c r="C177">
+        <v>28</v>
+      </c>
+      <c r="D177">
         <v>25</v>
       </c>
-      <c r="B177">
-        <v>28</v>
-      </c>
-      <c r="C177">
-        <v>17</v>
-      </c>
-      <c r="D177">
-        <v>20</v>
-      </c>
       <c r="E177">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="F177">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="G177">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178">
+        <v>25</v>
+      </c>
+      <c r="B178">
+        <v>14</v>
+      </c>
+      <c r="C178">
+        <v>5</v>
+      </c>
+      <c r="D178">
+        <v>2</v>
+      </c>
+      <c r="E178">
         <v>26</v>
       </c>
-      <c r="B178">
-        <v>36</v>
-      </c>
-      <c r="C178">
-        <v>18</v>
-      </c>
-      <c r="D178">
-        <v>17</v>
-      </c>
-      <c r="E178">
-        <v>31</v>
-      </c>
       <c r="F178">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G178">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B179">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D179">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E179">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F179">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G179">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B180">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C180">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D180">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E180">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F180">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="G180">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B181">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C181">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D181">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E181">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="F181">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G181">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B182">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C182">
         <v>22</v>
       </c>
       <c r="D182">
+        <v>37</v>
+      </c>
+      <c r="E182">
         <v>13</v>
       </c>
-      <c r="E182">
-        <v>16</v>
-      </c>
       <c r="F182">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="G182">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B183">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C183">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D183">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="E183">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="F183">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G183">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B184">
+        <v>19</v>
+      </c>
+      <c r="C184">
+        <v>17</v>
+      </c>
+      <c r="D184">
         <v>27</v>
       </c>
-      <c r="C184">
-        <v>24</v>
-      </c>
-      <c r="D184">
-        <v>30</v>
-      </c>
       <c r="E184">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F184">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G184">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B185">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C185">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D185">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E185">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="F185">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G185">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B186">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C186">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D186">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E186">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F186">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G186">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B187">
+        <v>23</v>
+      </c>
+      <c r="C187">
         <v>22</v>
       </c>
-      <c r="C187">
-        <v>38</v>
-      </c>
       <c r="D187">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E187">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="F187">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G187">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B188">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C188">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D188">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E188">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="F188">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G188">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="189" spans="1:7">
       <c r="A189">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B189">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C189">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="D189">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E189">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F189">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G189">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B190">
+        <v>26</v>
+      </c>
+      <c r="C190">
+        <v>30</v>
+      </c>
+      <c r="D190">
         <v>35</v>
       </c>
-      <c r="C190">
-        <v>19</v>
-      </c>
-      <c r="D190">
-        <v>24</v>
-      </c>
       <c r="E190">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F190">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G190">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="191" spans="1:7">
       <c r="A191">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B191">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C191">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D191">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E191">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="F191">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="G191">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -4245,22 +4242,22 @@
         <v>40</v>
       </c>
       <c r="B192">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C192">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D192">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E192">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="F192">
         <v>27</v>
       </c>
       <c r="G192">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/cs4735/sabinadev/assign2/Matchings.xlsx
+++ b/cs4735/sabinadev/assign2/Matchings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10080" yWindow="-80" windowWidth="23340" windowHeight="23260" tabRatio="500"/>
+    <workbookView xWindow="17660" yWindow="40" windowWidth="20280" windowHeight="23260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="88">
+  <si>
+    <t>String: i29.ppm</t>
+  </si>
+  <si>
+    <t>String: i11.ppm</t>
+  </si>
+  <si>
+    <t>String: i19.ppm</t>
+  </si>
+  <si>
+    <t>String: i27.ppm</t>
+  </si>
+  <si>
+    <t>String: i35.ppm</t>
+  </si>
+  <si>
+    <t>String: i15.ppm</t>
+  </si>
+  <si>
+    <t>String: i23.ppm</t>
+  </si>
+  <si>
+    <t>String: i31.ppm</t>
+  </si>
+  <si>
+    <t>String: i39.ppm</t>
+  </si>
+  <si>
+    <t>Player3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
   <si>
     <t>Original</t>
   </si>
@@ -55,6 +86,210 @@
   <si>
     <t>Player2</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>localD 0.8018727</t>
+  </si>
+  <si>
+    <t>a i01.ppm</t>
+  </si>
+  <si>
+    <t>b i04.ppm</t>
+  </si>
+  <si>
+    <t>localD 0.57958806</t>
+  </si>
+  <si>
+    <t>a i02.ppm</t>
+  </si>
+  <si>
+    <t>localD 0.6544944</t>
+  </si>
+  <si>
+    <t>b i06.ppm</t>
+  </si>
+  <si>
+    <t>localD 0.81797755</t>
+  </si>
+  <si>
+    <t>localD 0.54082394</t>
+  </si>
+  <si>
+    <t>a i04.ppm</t>
+  </si>
+  <si>
+    <t>localD 0.86310863</t>
+  </si>
+  <si>
+    <t>b i08.ppm</t>
+  </si>
+  <si>
+    <t>localD 0.6722846</t>
+  </si>
+  <si>
+    <t>localD 0.8372659</t>
+  </si>
+  <si>
+    <t>localD 0.6264045</t>
+  </si>
+  <si>
+    <t>a i06.ppm</t>
+  </si>
+  <si>
+    <t>localD 0.78370786</t>
+  </si>
+  <si>
+    <t>b i10.ppm</t>
+  </si>
+  <si>
+    <t>localD 0.52453184</t>
+  </si>
+  <si>
+    <t>localD 0.82340825</t>
+  </si>
+  <si>
+    <t>localD 0.4917603</t>
+  </si>
+  <si>
+    <t>localD 0.88778</t>
+  </si>
+  <si>
+    <t>localD 0.58408225</t>
+  </si>
+  <si>
+    <t>localD 0.6644678</t>
+  </si>
+  <si>
+    <t>localD 0.6106643</t>
+  </si>
+  <si>
+    <t>localD 0.6215807</t>
+  </si>
+  <si>
+    <t>localD 0.91254735</t>
+  </si>
+  <si>
+    <t>localD 0.6422291</t>
+  </si>
+  <si>
+    <t>localD 0.9198612</t>
+  </si>
+  <si>
+    <t>localD 0.67313427</t>
+  </si>
+  <si>
+    <t>localD 0.9283203</t>
+  </si>
+  <si>
+    <t>localD 0.5815311</t>
+  </si>
+  <si>
+    <t>localD 0.8987455</t>
+  </si>
+  <si>
+    <t>localD 0.62033486</t>
+  </si>
+  <si>
+    <t>localD 0.90814805</t>
+  </si>
+  <si>
+    <t>localD 0.66677994</t>
+  </si>
+  <si>
+    <t>String: i01.ppm</t>
+  </si>
+  <si>
+    <t>String: i04.ppm</t>
+  </si>
+  <si>
+    <t>String: i06.ppm</t>
+  </si>
+  <si>
+    <t>String: i08.ppm</t>
+  </si>
+  <si>
+    <t>String: i10.ppm</t>
+  </si>
+  <si>
+    <t>String: i12.ppm</t>
+  </si>
+  <si>
+    <t>String: i14.ppm</t>
+  </si>
+  <si>
+    <t>String: i16.ppm</t>
+  </si>
+  <si>
+    <t>String: i18.ppm</t>
+  </si>
+  <si>
+    <t>String: i20.ppm</t>
+  </si>
+  <si>
+    <t>String: i22.ppm</t>
+  </si>
+  <si>
+    <t>String: i24.ppm</t>
+  </si>
+  <si>
+    <t>String: i28.ppm</t>
+  </si>
+  <si>
+    <t>String: i30.ppm</t>
+  </si>
+  <si>
+    <t>String: i32.ppm</t>
+  </si>
+  <si>
+    <t>String: i34.ppm</t>
+  </si>
+  <si>
+    <t>String: i36.ppm</t>
+  </si>
+  <si>
+    <t>String: i38.ppm</t>
+  </si>
+  <si>
+    <t>String: i40.ppm</t>
+  </si>
+  <si>
+    <t>This is the end of the cluster.</t>
+  </si>
+  <si>
+    <t>String: i03.ppm</t>
+  </si>
+  <si>
+    <t>String: i26.ppm</t>
+  </si>
+  <si>
+    <t>String: i05.ppm</t>
+  </si>
+  <si>
+    <t>String: i09.ppm</t>
+  </si>
+  <si>
+    <t>String: i13.ppm</t>
+  </si>
+  <si>
+    <t>String: i17.ppm</t>
+  </si>
+  <si>
+    <t>String: i21.ppm</t>
+  </si>
+  <si>
+    <t>String: i25.ppm</t>
+  </si>
+  <si>
+    <t>String: i33.ppm</t>
+  </si>
+  <si>
+    <t>String: i37.ppm</t>
+  </si>
+  <si>
+    <t>String: i07.ppm</t>
+  </si>
+  <si>
+    <t>String: i02.ppm</t>
   </si>
 </sst>
 </file>
@@ -435,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A4:G192"/>
+  <dimension ref="A4:G388"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A148" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G170" sqref="G170"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A50" zoomScale="125" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -454,12 +689,12 @@
   <sheetData>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -468,266 +703,266 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>31</v>
+      </c>
+      <c r="F8">
         <v>6</v>
       </c>
-      <c r="D8">
-        <v>15</v>
-      </c>
-      <c r="E8">
-        <v>27</v>
-      </c>
-      <c r="F8">
-        <v>38</v>
-      </c>
       <c r="G8">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="B9">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C9">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F9">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F10">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G10">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B11">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>23</v>
+      </c>
+      <c r="E12">
         <v>13</v>
       </c>
-      <c r="B12">
-        <v>34</v>
-      </c>
-      <c r="C12">
-        <v>22</v>
-      </c>
-      <c r="D12">
-        <v>14</v>
-      </c>
-      <c r="E12">
-        <v>32</v>
-      </c>
       <c r="F12">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="G12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B13">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>31</v>
       </c>
       <c r="F13">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G13">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B14">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C14">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="F14">
         <v>37</v>
       </c>
       <c r="G14">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B15">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C15">
         <v>6</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E15">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F15">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="G15">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="B16">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D16">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F16">
+        <v>37</v>
+      </c>
+      <c r="G16">
         <v>6</v>
-      </c>
-      <c r="G16">
-        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17">
         <v>11</v>
       </c>
-      <c r="D17">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>13</v>
-      </c>
       <c r="F17">
         <v>31</v>
       </c>
       <c r="G17">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>23</v>
+      </c>
+      <c r="C18">
         <v>6</v>
       </c>
-      <c r="B18">
+      <c r="D18">
         <v>5</v>
       </c>
-      <c r="C18">
-        <v>15</v>
-      </c>
-      <c r="D18">
-        <v>23</v>
-      </c>
       <c r="E18">
         <v>31</v>
       </c>
       <c r="F18">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G18">
         <v>32</v>
@@ -735,151 +970,151 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E19">
         <v>31</v>
       </c>
       <c r="F19">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="G19">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B20">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D20">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E20">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F20">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="G20">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B21">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C21">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D21">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="E21">
         <v>31</v>
       </c>
       <c r="F21">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="G21">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B22">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C22">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D22">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E22">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F22">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="G22">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
+        <v>16</v>
+      </c>
+      <c r="B23">
         <v>10</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>1</v>
       </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
       <c r="D23">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E23">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F23">
         <v>31</v>
       </c>
       <c r="G23">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B24">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C24">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D24">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E24">
         <v>31</v>
       </c>
       <c r="F24">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G24">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B25">
         <v>36</v>
       </c>
       <c r="C25">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D25">
         <v>17</v>
@@ -891,113 +1126,113 @@
         <v>37</v>
       </c>
       <c r="G25">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B26">
+        <v>38</v>
+      </c>
+      <c r="C26">
         <v>16</v>
       </c>
-      <c r="C26">
-        <v>4</v>
-      </c>
       <c r="D26">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E26">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G26">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B27">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C27">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D27">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E27">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F27">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G27">
-        <v>37</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B28">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C28">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D28">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E28">
         <v>31</v>
       </c>
       <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="13" customHeight="1">
+      <c r="A29">
+        <v>22</v>
+      </c>
+      <c r="B29">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>34</v>
+      </c>
+      <c r="E29">
+        <v>31</v>
+      </c>
+      <c r="F29">
         <v>6</v>
       </c>
-      <c r="G28">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>32</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>30</v>
-      </c>
-      <c r="E29">
-        <v>26</v>
-      </c>
-      <c r="F29">
-        <v>18</v>
-      </c>
       <c r="G29">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B30">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C30">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D30">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E30">
         <v>31</v>
@@ -1006,30 +1241,30 @@
         <v>32</v>
       </c>
       <c r="G30">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B31">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>19</v>
+      </c>
+      <c r="E31">
+        <v>31</v>
+      </c>
+      <c r="F31">
         <v>18</v>
       </c>
-      <c r="D31">
-        <v>36</v>
-      </c>
-      <c r="E31">
-        <v>31</v>
-      </c>
-      <c r="F31">
-        <v>30</v>
-      </c>
       <c r="G31">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1057,91 +1292,91 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B33">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C33">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D33">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E33">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F33">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G33">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B34">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C34">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E34">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F34">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G34">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B35">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C35">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E35">
         <v>31</v>
       </c>
       <c r="F35">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="G35">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E36">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F36">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G36">
         <v>6</v>
@@ -1149,368 +1384,368 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B37">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C37">
         <v>22</v>
       </c>
       <c r="D37">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E37">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="F37">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G37">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B38">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C38">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D38">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E38">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F38">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G38">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B39">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C39">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D39">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E39">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F39">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="G39">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="C40">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D40">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="E40">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F40">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="G40">
-        <v>2</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B41">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41">
+        <v>37</v>
+      </c>
+      <c r="F41">
+        <v>31</v>
+      </c>
+      <c r="G41">
         <v>6</v>
-      </c>
-      <c r="F41">
-        <v>11</v>
-      </c>
-      <c r="G41">
-        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B42">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C42">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D42">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E42">
         <v>31</v>
       </c>
       <c r="F42">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="G42">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B43">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C43">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D43">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E43">
         <v>31</v>
       </c>
       <c r="F43">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="G43">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44">
+        <v>37</v>
+      </c>
+      <c r="B44">
+        <v>16</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>32</v>
+      </c>
+      <c r="E44">
         <v>23</v>
       </c>
-      <c r="B44">
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
         <v>6</v>
-      </c>
-      <c r="C44">
-        <v>21</v>
-      </c>
-      <c r="D44">
-        <v>5</v>
-      </c>
-      <c r="E44">
-        <v>31</v>
-      </c>
-      <c r="F44">
-        <v>32</v>
-      </c>
-      <c r="G44">
-        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B45">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D45">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="E45">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F45">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G45">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46">
+        <v>39</v>
+      </c>
+      <c r="B46">
+        <v>20</v>
+      </c>
+      <c r="C46">
         <v>22</v>
       </c>
-      <c r="B46">
-        <v>29</v>
-      </c>
-      <c r="C46">
-        <v>2</v>
-      </c>
       <c r="D46">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E46">
         <v>31</v>
       </c>
       <c r="F46">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="G46">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B47">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C47">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E47">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F47">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G47">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="G54" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B55">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C55">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D55">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E55">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F55">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="B56">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="C56">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D56">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E56">
+        <v>29</v>
+      </c>
+      <c r="F56">
+        <v>31</v>
+      </c>
+      <c r="G56">
         <v>26</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-      <c r="G56">
-        <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B57">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C57">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D57">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E57">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F57">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G57">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B58">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C58">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D58">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E58">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F58">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G58">
         <v>29</v>
@@ -1518,42 +1753,42 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B59">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C59">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D59">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E59">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="F59">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B60">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C60">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D60">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E60">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F60">
         <v>22</v>
@@ -1564,45 +1799,45 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="B61">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C61">
+        <v>6</v>
+      </c>
+      <c r="D61">
+        <v>8</v>
+      </c>
+      <c r="E61">
+        <v>28</v>
+      </c>
+      <c r="F61">
         <v>22</v>
       </c>
-      <c r="D61">
-        <v>37</v>
-      </c>
-      <c r="E61">
-        <v>13</v>
-      </c>
-      <c r="F61">
-        <v>11</v>
-      </c>
       <c r="G61">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B62">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D62">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E62">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F62">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G62">
         <v>29</v>
@@ -1610,390 +1845,390 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B63">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C63">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="D63">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E63">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F63">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G63">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B64">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C64">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E64">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F64">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G64">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B65">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C65">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D65">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E65">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F65">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="G65">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B66">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C66">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D66">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E66">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F66">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G66">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B67">
         <v>3</v>
       </c>
       <c r="C67">
+        <v>4</v>
+      </c>
+      <c r="D67">
         <v>9</v>
       </c>
-      <c r="D67">
-        <v>13</v>
-      </c>
       <c r="E67">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F67">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G67">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B68">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C68">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D68">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E68">
         <v>29</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="G68">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B69">
         <v>6</v>
       </c>
       <c r="C69">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D69">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E69">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F69">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G69">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B70">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C70">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D70">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E70">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F70">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G70">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B71">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C71">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D71">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E71">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F71">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G71">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B72">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C72">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D72">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F72">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="G72">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B73">
         <v>32</v>
       </c>
       <c r="C73">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D73">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E73">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F73">
         <v>15</v>
       </c>
       <c r="G73">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B74">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C74">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D74">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F74">
         <v>9</v>
       </c>
       <c r="G74">
-        <v>31</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B75">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C75">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D75">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E75">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F75">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="G75">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B76">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C76">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D76">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E76">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="F76">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="G76">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B77">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C77">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D77">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E77">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="F77">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G77">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78">
+        <v>23</v>
+      </c>
+      <c r="B78">
+        <v>24</v>
+      </c>
+      <c r="C78">
+        <v>18</v>
+      </c>
+      <c r="D78">
+        <v>32</v>
+      </c>
+      <c r="E78">
+        <v>29</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
         <v>9</v>
-      </c>
-      <c r="B78">
-        <v>3</v>
-      </c>
-      <c r="C78">
-        <v>4</v>
-      </c>
-      <c r="D78">
-        <v>13</v>
-      </c>
-      <c r="E78">
-        <v>28</v>
-      </c>
-      <c r="F78">
-        <v>22</v>
-      </c>
-      <c r="G78">
-        <v>29</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B79">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C79">
+        <v>28</v>
+      </c>
+      <c r="D79">
+        <v>25</v>
+      </c>
+      <c r="E79">
         <v>1</v>
       </c>
-      <c r="D79">
-        <v>7</v>
-      </c>
-      <c r="E79">
-        <v>28</v>
-      </c>
       <c r="F79">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="G79">
         <v>29</v>
@@ -2001,10 +2236,10 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B80">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C80">
         <v>5</v>
@@ -2024,206 +2259,206 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B81">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C81">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="D81">
+        <v>37</v>
+      </c>
+      <c r="E81">
+        <v>31</v>
+      </c>
+      <c r="F81">
+        <v>15</v>
+      </c>
+      <c r="G81">
         <v>9</v>
-      </c>
-      <c r="E81">
-        <v>26</v>
-      </c>
-      <c r="F81">
-        <v>29</v>
-      </c>
-      <c r="G81">
-        <v>31</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B82">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D82">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E82">
         <v>26</v>
       </c>
       <c r="F82">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="G82">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B83">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C83">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D83">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E83">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="F83">
         <v>29</v>
       </c>
       <c r="G83">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B84">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C84">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D84">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E84">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F84">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G84">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B85">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C85">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D85">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E85">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F85">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G85">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B86">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C86">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D86">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E86">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="F86">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G86">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B87">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C87">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D87">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F87">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G87">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B88">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C88">
+        <v>9</v>
+      </c>
+      <c r="D88">
         <v>28</v>
       </c>
-      <c r="D88">
-        <v>25</v>
-      </c>
       <c r="E88">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F88">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="G88">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B89">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C89">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D89">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E89">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="F89">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="G89">
         <v>31</v>
@@ -2231,68 +2466,68 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90">
+        <v>35</v>
+      </c>
+      <c r="B90">
         <v>30</v>
       </c>
-      <c r="B90">
-        <v>37</v>
-      </c>
       <c r="C90">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D90">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E90">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="G90">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B91">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C91">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D91">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E91">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F91">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G91">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92">
+        <v>37</v>
+      </c>
+      <c r="B92">
+        <v>26</v>
+      </c>
+      <c r="C92">
+        <v>30</v>
+      </c>
+      <c r="D92">
         <v>35</v>
       </c>
-      <c r="B92">
-        <v>30</v>
-      </c>
-      <c r="C92">
-        <v>26</v>
-      </c>
-      <c r="D92">
-        <v>37</v>
-      </c>
       <c r="E92">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F92">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G92">
         <v>15</v>
@@ -2300,22 +2535,22 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B93">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C93">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D93">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E93">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F93">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G93">
         <v>15</v>
@@ -2323,58 +2558,58 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B94">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C94">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D94">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E94">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F94">
         <v>3</v>
       </c>
       <c r="G94">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B95">
+        <v>37</v>
+      </c>
+      <c r="C95">
+        <v>38</v>
+      </c>
+      <c r="D95">
         <v>35</v>
-      </c>
-      <c r="C95">
-        <v>30</v>
-      </c>
-      <c r="D95">
-        <v>36</v>
       </c>
       <c r="E95">
         <v>1</v>
       </c>
       <c r="F95">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="G95">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -2383,16 +2618,16 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="G103" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -3317,27 +3552,27 @@
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B151" s="2"/>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
       <c r="G152" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -4260,9 +4495,2407 @@
         <v>15</v>
       </c>
     </row>
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
+        <v>20</v>
+      </c>
+      <c r="D197" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
+        <v>21</v>
+      </c>
+      <c r="D198" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
+        <v>22</v>
+      </c>
+      <c r="D199" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" t="s">
+        <v>23</v>
+      </c>
+      <c r="D200" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" t="s">
+        <v>24</v>
+      </c>
+      <c r="D201" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" t="s">
+        <v>22</v>
+      </c>
+      <c r="D202" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" t="s">
+        <v>25</v>
+      </c>
+      <c r="D203" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" t="s">
+        <v>21</v>
+      </c>
+      <c r="D204" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" t="s">
+        <v>26</v>
+      </c>
+      <c r="D205" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" t="s">
+        <v>27</v>
+      </c>
+      <c r="D206" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" t="s">
+        <v>28</v>
+      </c>
+      <c r="D207" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" t="s">
+        <v>29</v>
+      </c>
+      <c r="D208" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" t="s">
+        <v>26</v>
+      </c>
+      <c r="D209" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" t="s">
+        <v>30</v>
+      </c>
+      <c r="D210" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" t="s">
+        <v>21</v>
+      </c>
+      <c r="D211" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" t="s">
+        <v>31</v>
+      </c>
+      <c r="D212" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" t="s">
+        <v>32</v>
+      </c>
+      <c r="D213" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" t="s">
+        <v>24</v>
+      </c>
+      <c r="D214" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" t="s">
+        <v>31</v>
+      </c>
+      <c r="D215" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" t="s">
+        <v>33</v>
+      </c>
+      <c r="D216" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" t="s">
+        <v>34</v>
+      </c>
+      <c r="D217" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" t="s">
+        <v>35</v>
+      </c>
+      <c r="D218" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" t="s">
+        <v>31</v>
+      </c>
+      <c r="D219" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" t="s">
+        <v>36</v>
+      </c>
+      <c r="D220" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" t="s">
+        <v>21</v>
+      </c>
+      <c r="D221" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" t="s">
+        <v>37</v>
+      </c>
+      <c r="D222" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" t="s">
+        <v>38</v>
+      </c>
+      <c r="D223" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" t="s">
+        <v>24</v>
+      </c>
+      <c r="D224" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" t="s">
+        <v>37</v>
+      </c>
+      <c r="D225" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" t="s">
+        <v>39</v>
+      </c>
+      <c r="D226" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" t="s">
+        <v>40</v>
+      </c>
+      <c r="D227" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="A289" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="A290" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
+      <c r="A291" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
+      <c r="A297" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B297" s="1"/>
+      <c r="C297" s="1"/>
+      <c r="D297" s="1"/>
+      <c r="E297" s="1"/>
+    </row>
+    <row r="298" spans="1:7">
+      <c r="A298" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C298" s="1"/>
+      <c r="D298" s="1"/>
+      <c r="E298" s="1"/>
+      <c r="G298" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
+      <c r="A299">
+        <v>10</v>
+      </c>
+      <c r="B299">
+        <v>1</v>
+      </c>
+      <c r="C299">
+        <v>3</v>
+      </c>
+      <c r="D299">
+        <v>16</v>
+      </c>
+      <c r="E299">
+        <v>11</v>
+      </c>
+      <c r="F299">
+        <v>31</v>
+      </c>
+      <c r="G299">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="A300">
+        <v>24</v>
+      </c>
+      <c r="B300">
+        <v>3</v>
+      </c>
+      <c r="C300">
+        <v>4</v>
+      </c>
+      <c r="D300">
+        <v>19</v>
+      </c>
+      <c r="E300">
+        <v>31</v>
+      </c>
+      <c r="F300">
+        <v>18</v>
+      </c>
+      <c r="G300">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
+      <c r="A301">
+        <v>9</v>
+      </c>
+      <c r="B301">
+        <v>16</v>
+      </c>
+      <c r="C301">
+        <v>4</v>
+      </c>
+      <c r="D301">
+        <v>1</v>
+      </c>
+      <c r="E301">
+        <v>32</v>
+      </c>
+      <c r="F301">
+        <v>37</v>
+      </c>
+      <c r="G301">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
+      <c r="A302">
+        <v>1</v>
+      </c>
+      <c r="B302">
+        <v>3</v>
+      </c>
+      <c r="C302">
+        <v>16</v>
+      </c>
+      <c r="D302">
+        <v>4</v>
+      </c>
+      <c r="E302">
+        <v>31</v>
+      </c>
+      <c r="F302">
+        <v>6</v>
+      </c>
+      <c r="G302">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
+      <c r="A303">
+        <v>6</v>
+      </c>
+      <c r="B303">
+        <v>5</v>
+      </c>
+      <c r="C303">
+        <v>15</v>
+      </c>
+      <c r="D303">
+        <v>23</v>
+      </c>
+      <c r="E303">
+        <v>32</v>
+      </c>
+      <c r="F303">
+        <v>22</v>
+      </c>
+      <c r="G303">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
+      <c r="A304">
+        <v>5</v>
+      </c>
+      <c r="B304">
+        <v>5</v>
+      </c>
+      <c r="C304">
+        <v>11</v>
+      </c>
+      <c r="D304">
+        <v>23</v>
+      </c>
+      <c r="E304">
+        <v>13</v>
+      </c>
+      <c r="F304">
+        <v>31</v>
+      </c>
+      <c r="G304">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
+      <c r="A305">
+        <v>23</v>
+      </c>
+      <c r="B305">
+        <v>6</v>
+      </c>
+      <c r="C305">
+        <v>21</v>
+      </c>
+      <c r="D305">
+        <v>5</v>
+      </c>
+      <c r="E305">
+        <v>31</v>
+      </c>
+      <c r="F305">
+        <v>32</v>
+      </c>
+      <c r="G305">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
+      <c r="A306">
+        <v>8</v>
+      </c>
+      <c r="B306">
+        <v>7</v>
+      </c>
+      <c r="C306">
+        <v>6</v>
+      </c>
+      <c r="D306">
+        <v>15</v>
+      </c>
+      <c r="E306">
+        <v>27</v>
+      </c>
+      <c r="F306">
+        <v>38</v>
+      </c>
+      <c r="G306">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
+      <c r="A307">
+        <v>40</v>
+      </c>
+      <c r="B307">
+        <v>7</v>
+      </c>
+      <c r="C307">
+        <v>8</v>
+      </c>
+      <c r="D307">
+        <v>21</v>
+      </c>
+      <c r="E307">
+        <v>31</v>
+      </c>
+      <c r="F307">
+        <v>27</v>
+      </c>
+      <c r="G307">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
+      <c r="A308">
+        <v>7</v>
+      </c>
+      <c r="B308">
+        <v>8</v>
+      </c>
+      <c r="C308">
+        <v>40</v>
+      </c>
+      <c r="D308">
+        <v>15</v>
+      </c>
+      <c r="E308">
+        <v>31</v>
+      </c>
+      <c r="F308">
+        <v>37</v>
+      </c>
+      <c r="G308">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
+      <c r="A309">
+        <v>3</v>
+      </c>
+      <c r="B309">
+        <v>16</v>
+      </c>
+      <c r="C309">
+        <v>4</v>
+      </c>
+      <c r="D309">
+        <v>38</v>
+      </c>
+      <c r="E309">
+        <v>36</v>
+      </c>
+      <c r="F309">
+        <v>31</v>
+      </c>
+      <c r="G309">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
+      <c r="A310">
+        <v>4</v>
+      </c>
+      <c r="B310">
+        <v>10</v>
+      </c>
+      <c r="C310">
+        <v>3</v>
+      </c>
+      <c r="D310">
+        <v>1</v>
+      </c>
+      <c r="E310">
+        <v>6</v>
+      </c>
+      <c r="F310">
+        <v>11</v>
+      </c>
+      <c r="G310">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
+      <c r="A311">
+        <v>16</v>
+      </c>
+      <c r="B311">
+        <v>1</v>
+      </c>
+      <c r="C311">
+        <v>1</v>
+      </c>
+      <c r="D311">
+        <v>4</v>
+      </c>
+      <c r="E311">
+        <v>15</v>
+      </c>
+      <c r="F311">
+        <v>31</v>
+      </c>
+      <c r="G311">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
+      <c r="A312">
+        <v>14</v>
+      </c>
+      <c r="B312">
+        <v>13</v>
+      </c>
+      <c r="C312">
+        <v>12</v>
+      </c>
+      <c r="D312">
+        <v>2</v>
+      </c>
+      <c r="E312">
+        <v>31</v>
+      </c>
+      <c r="F312">
+        <v>6</v>
+      </c>
+      <c r="G312">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
+      <c r="A313">
+        <v>12</v>
+      </c>
+      <c r="B313">
+        <v>14</v>
+      </c>
+      <c r="C313">
+        <v>2</v>
+      </c>
+      <c r="D313">
+        <v>39</v>
+      </c>
+      <c r="E313">
+        <v>31</v>
+      </c>
+      <c r="F313">
+        <v>37</v>
+      </c>
+      <c r="G313">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
+      <c r="A314">
+        <v>37</v>
+      </c>
+      <c r="B314">
+        <v>16</v>
+      </c>
+      <c r="C314">
+        <v>4</v>
+      </c>
+      <c r="D314">
+        <v>32</v>
+      </c>
+      <c r="E314">
+        <v>23</v>
+      </c>
+      <c r="F314">
+        <v>2</v>
+      </c>
+      <c r="G314">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
+      <c r="A315">
+        <v>2</v>
+      </c>
+      <c r="B315">
+        <v>17</v>
+      </c>
+      <c r="C315">
+        <v>34</v>
+      </c>
+      <c r="D315">
+        <v>20</v>
+      </c>
+      <c r="E315">
+        <v>30</v>
+      </c>
+      <c r="F315">
+        <v>32</v>
+      </c>
+      <c r="G315">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
+      <c r="A316">
+        <v>36</v>
+      </c>
+      <c r="B316">
+        <v>18</v>
+      </c>
+      <c r="C316">
+        <v>23</v>
+      </c>
+      <c r="D316">
+        <v>33</v>
+      </c>
+      <c r="E316">
+        <v>31</v>
+      </c>
+      <c r="F316">
+        <v>37</v>
+      </c>
+      <c r="G316">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7">
+      <c r="A317">
+        <v>17</v>
+      </c>
+      <c r="B317">
+        <v>20</v>
+      </c>
+      <c r="C317">
+        <v>18</v>
+      </c>
+      <c r="D317">
+        <v>36</v>
+      </c>
+      <c r="E317">
+        <v>32</v>
+      </c>
+      <c r="F317">
+        <v>30</v>
+      </c>
+      <c r="G317">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
+      <c r="A318">
+        <v>39</v>
+      </c>
+      <c r="B318">
+        <v>34</v>
+      </c>
+      <c r="C318">
+        <v>22</v>
+      </c>
+      <c r="D318">
+        <v>14</v>
+      </c>
+      <c r="E318">
+        <v>31</v>
+      </c>
+      <c r="F318">
+        <v>36</v>
+      </c>
+      <c r="G318">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7">
+      <c r="A319">
+        <v>34</v>
+      </c>
+      <c r="B319">
+        <v>20</v>
+      </c>
+      <c r="C319">
+        <v>22</v>
+      </c>
+      <c r="D319">
+        <v>2</v>
+      </c>
+      <c r="E319">
+        <v>37</v>
+      </c>
+      <c r="F319">
+        <v>31</v>
+      </c>
+      <c r="G319">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7">
+      <c r="A320">
+        <v>35</v>
+      </c>
+      <c r="B320">
+        <v>22</v>
+      </c>
+      <c r="C320">
+        <v>38</v>
+      </c>
+      <c r="D320">
+        <v>29</v>
+      </c>
+      <c r="E320">
+        <v>32</v>
+      </c>
+      <c r="F320">
+        <v>6</v>
+      </c>
+      <c r="G320">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7">
+      <c r="A321">
+        <v>21</v>
+      </c>
+      <c r="B321">
+        <v>23</v>
+      </c>
+      <c r="C321">
+        <v>40</v>
+      </c>
+      <c r="D321">
+        <v>33</v>
+      </c>
+      <c r="E321">
+        <v>31</v>
+      </c>
+      <c r="F321">
+        <v>3</v>
+      </c>
+      <c r="G321">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7">
+      <c r="A322">
+        <v>11</v>
+      </c>
+      <c r="B322">
+        <v>23</v>
+      </c>
+      <c r="C322">
+        <v>6</v>
+      </c>
+      <c r="D322">
+        <v>5</v>
+      </c>
+      <c r="E322">
+        <v>31</v>
+      </c>
+      <c r="F322">
+        <v>16</v>
+      </c>
+      <c r="G322">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7">
+      <c r="A323">
+        <v>32</v>
+      </c>
+      <c r="B323">
+        <v>27</v>
+      </c>
+      <c r="C323">
+        <v>24</v>
+      </c>
+      <c r="D323">
+        <v>30</v>
+      </c>
+      <c r="E323">
+        <v>18</v>
+      </c>
+      <c r="F323">
+        <v>5</v>
+      </c>
+      <c r="G323">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7">
+      <c r="A324">
+        <v>25</v>
+      </c>
+      <c r="B324">
+        <v>28</v>
+      </c>
+      <c r="C324">
+        <v>17</v>
+      </c>
+      <c r="D324">
+        <v>20</v>
+      </c>
+      <c r="E324">
+        <v>37</v>
+      </c>
+      <c r="F324">
+        <v>27</v>
+      </c>
+      <c r="G324">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7">
+      <c r="A325">
+        <v>30</v>
+      </c>
+      <c r="B325">
+        <v>29</v>
+      </c>
+      <c r="C325">
+        <v>22</v>
+      </c>
+      <c r="D325">
+        <v>13</v>
+      </c>
+      <c r="E325">
+        <v>6</v>
+      </c>
+      <c r="F325">
+        <v>37</v>
+      </c>
+      <c r="G325">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7">
+      <c r="A326">
+        <v>22</v>
+      </c>
+      <c r="B326">
+        <v>29</v>
+      </c>
+      <c r="C326">
+        <v>2</v>
+      </c>
+      <c r="D326">
+        <v>34</v>
+      </c>
+      <c r="E326">
+        <v>31</v>
+      </c>
+      <c r="F326">
+        <v>6</v>
+      </c>
+      <c r="G326">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7">
+      <c r="A327">
+        <v>31</v>
+      </c>
+      <c r="B327">
+        <v>31</v>
+      </c>
+      <c r="C327">
+        <v>27</v>
+      </c>
+      <c r="D327">
+        <v>7</v>
+      </c>
+      <c r="E327">
+        <v>26</v>
+      </c>
+      <c r="F327">
+        <v>14</v>
+      </c>
+      <c r="G327">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7">
+      <c r="A328">
+        <v>27</v>
+      </c>
+      <c r="B328">
+        <v>32</v>
+      </c>
+      <c r="C328">
+        <v>1</v>
+      </c>
+      <c r="D328">
+        <v>30</v>
+      </c>
+      <c r="E328">
+        <v>26</v>
+      </c>
+      <c r="F328">
+        <v>18</v>
+      </c>
+      <c r="G328">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
+      <c r="A329">
+        <v>13</v>
+      </c>
+      <c r="B329">
+        <v>34</v>
+      </c>
+      <c r="C329">
+        <v>22</v>
+      </c>
+      <c r="D329">
+        <v>14</v>
+      </c>
+      <c r="E329">
+        <v>32</v>
+      </c>
+      <c r="F329">
+        <v>5</v>
+      </c>
+      <c r="G329">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7">
+      <c r="A330">
+        <v>20</v>
+      </c>
+      <c r="B330">
+        <v>34</v>
+      </c>
+      <c r="C330">
+        <v>17</v>
+      </c>
+      <c r="D330">
+        <v>25</v>
+      </c>
+      <c r="E330">
+        <v>31</v>
+      </c>
+      <c r="F330">
+        <v>32</v>
+      </c>
+      <c r="G330">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7">
+      <c r="A331">
+        <v>38</v>
+      </c>
+      <c r="B331">
+        <v>35</v>
+      </c>
+      <c r="C331">
+        <v>19</v>
+      </c>
+      <c r="D331">
+        <v>24</v>
+      </c>
+      <c r="E331">
+        <v>5</v>
+      </c>
+      <c r="F331">
+        <v>26</v>
+      </c>
+      <c r="G331">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7">
+      <c r="A332">
+        <v>18</v>
+      </c>
+      <c r="B332">
+        <v>36</v>
+      </c>
+      <c r="C332">
+        <v>33</v>
+      </c>
+      <c r="D332">
+        <v>17</v>
+      </c>
+      <c r="E332">
+        <v>31</v>
+      </c>
+      <c r="F332">
+        <v>37</v>
+      </c>
+      <c r="G332">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7">
+      <c r="A333">
+        <v>26</v>
+      </c>
+      <c r="B333">
+        <v>18</v>
+      </c>
+      <c r="C333">
+        <v>18</v>
+      </c>
+      <c r="D333">
+        <v>17</v>
+      </c>
+      <c r="E333">
+        <v>31</v>
+      </c>
+      <c r="F333">
+        <v>37</v>
+      </c>
+      <c r="G333">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7">
+      <c r="A334">
+        <v>15</v>
+      </c>
+      <c r="B334">
+        <v>36</v>
+      </c>
+      <c r="C334">
+        <v>8</v>
+      </c>
+      <c r="D334">
+        <v>17</v>
+      </c>
+      <c r="E334">
+        <v>32</v>
+      </c>
+      <c r="F334">
+        <v>31</v>
+      </c>
+      <c r="G334">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7">
+      <c r="A335">
+        <v>33</v>
+      </c>
+      <c r="B335">
+        <v>18</v>
+      </c>
+      <c r="C335">
+        <v>28</v>
+      </c>
+      <c r="D335">
+        <v>25</v>
+      </c>
+      <c r="E335">
+        <v>30</v>
+      </c>
+      <c r="F335">
+        <v>32</v>
+      </c>
+      <c r="G335">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7">
+      <c r="A336">
+        <v>19</v>
+      </c>
+      <c r="B336">
+        <v>38</v>
+      </c>
+      <c r="C336">
+        <v>16</v>
+      </c>
+      <c r="D336">
+        <v>10</v>
+      </c>
+      <c r="E336">
+        <v>31</v>
+      </c>
+      <c r="F336">
+        <v>6</v>
+      </c>
+      <c r="G336">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7">
+      <c r="A337">
+        <v>29</v>
+      </c>
+      <c r="B337">
+        <v>38</v>
+      </c>
+      <c r="C337">
+        <v>22</v>
+      </c>
+      <c r="D337">
+        <v>30</v>
+      </c>
+      <c r="E337">
+        <v>37</v>
+      </c>
+      <c r="F337">
+        <v>31</v>
+      </c>
+      <c r="G337">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7">
+      <c r="A338">
+        <v>28</v>
+      </c>
+      <c r="B338">
+        <v>40</v>
+      </c>
+      <c r="C338">
+        <v>33</v>
+      </c>
+      <c r="D338">
+        <v>25</v>
+      </c>
+      <c r="E338">
+        <v>31</v>
+      </c>
+      <c r="F338">
+        <v>32</v>
+      </c>
+      <c r="G338">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7">
+      <c r="A344" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7">
+      <c r="A346" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7">
+      <c r="A347" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C347" s="1"/>
+      <c r="D347" s="1"/>
+      <c r="E347" s="1"/>
+      <c r="G347" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7">
+      <c r="A348">
+        <v>4</v>
+      </c>
+      <c r="B348">
+        <v>3</v>
+      </c>
+      <c r="C348">
+        <v>9</v>
+      </c>
+      <c r="D348">
+        <v>13</v>
+      </c>
+      <c r="E348">
+        <v>32</v>
+      </c>
+      <c r="F348">
+        <v>31</v>
+      </c>
+      <c r="G348">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7">
+      <c r="A349">
+        <v>9</v>
+      </c>
+      <c r="B349">
+        <v>9</v>
+      </c>
+      <c r="C349">
+        <v>4</v>
+      </c>
+      <c r="D349">
+        <v>3</v>
+      </c>
+      <c r="E349">
+        <v>28</v>
+      </c>
+      <c r="F349">
+        <v>22</v>
+      </c>
+      <c r="G349">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7">
+      <c r="A350">
+        <v>13</v>
+      </c>
+      <c r="B350">
+        <v>3</v>
+      </c>
+      <c r="C350">
+        <v>4</v>
+      </c>
+      <c r="D350">
+        <v>9</v>
+      </c>
+      <c r="E350">
+        <v>26</v>
+      </c>
+      <c r="F350">
+        <v>29</v>
+      </c>
+      <c r="G350">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7">
+      <c r="A351">
+        <v>3</v>
+      </c>
+      <c r="B351">
+        <v>4</v>
+      </c>
+      <c r="C351">
+        <v>9</v>
+      </c>
+      <c r="D351">
+        <v>13</v>
+      </c>
+      <c r="E351">
+        <v>32</v>
+      </c>
+      <c r="F351">
+        <v>31</v>
+      </c>
+      <c r="G351">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7">
+      <c r="A352">
+        <v>14</v>
+      </c>
+      <c r="B352">
+        <v>5</v>
+      </c>
+      <c r="C352">
+        <v>25</v>
+      </c>
+      <c r="D352">
+        <v>12</v>
+      </c>
+      <c r="E352">
+        <v>29</v>
+      </c>
+      <c r="F352">
+        <v>31</v>
+      </c>
+      <c r="G352">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7">
+      <c r="A353">
+        <v>2</v>
+      </c>
+      <c r="B353">
+        <v>5</v>
+      </c>
+      <c r="C353">
+        <v>14</v>
+      </c>
+      <c r="D353">
+        <v>25</v>
+      </c>
+      <c r="E353">
+        <v>29</v>
+      </c>
+      <c r="F353">
+        <v>31</v>
+      </c>
+      <c r="G353">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7">
+      <c r="A354">
+        <v>15</v>
+      </c>
+      <c r="B354">
+        <v>6</v>
+      </c>
+      <c r="C354">
+        <v>16</v>
+      </c>
+      <c r="D354">
+        <v>2</v>
+      </c>
+      <c r="E354">
+        <v>26</v>
+      </c>
+      <c r="F354">
+        <v>29</v>
+      </c>
+      <c r="G354">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7">
+      <c r="A355">
+        <v>5</v>
+      </c>
+      <c r="B355">
+        <v>16</v>
+      </c>
+      <c r="C355">
+        <v>7</v>
+      </c>
+      <c r="D355">
+        <v>16</v>
+      </c>
+      <c r="E355">
+        <v>29</v>
+      </c>
+      <c r="F355">
+        <v>31</v>
+      </c>
+      <c r="G355">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7">
+      <c r="A356">
+        <v>8</v>
+      </c>
+      <c r="B356">
+        <v>6</v>
+      </c>
+      <c r="C356">
+        <v>7</v>
+      </c>
+      <c r="D356">
+        <v>16</v>
+      </c>
+      <c r="E356">
+        <v>28</v>
+      </c>
+      <c r="F356">
+        <v>22</v>
+      </c>
+      <c r="G356">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7">
+      <c r="A357">
+        <v>16</v>
+      </c>
+      <c r="B357">
+        <v>6</v>
+      </c>
+      <c r="C357">
+        <v>2</v>
+      </c>
+      <c r="D357">
+        <v>15</v>
+      </c>
+      <c r="E357">
+        <v>26</v>
+      </c>
+      <c r="F357">
+        <v>29</v>
+      </c>
+      <c r="G357">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7">
+      <c r="A358">
+        <v>6</v>
+      </c>
+      <c r="B358">
+        <v>7</v>
+      </c>
+      <c r="C358">
+        <v>8</v>
+      </c>
+      <c r="D358">
+        <v>16</v>
+      </c>
+      <c r="E358">
+        <v>28</v>
+      </c>
+      <c r="F358">
+        <v>22</v>
+      </c>
+      <c r="G358">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7">
+      <c r="A359">
+        <v>11</v>
+      </c>
+      <c r="B359">
+        <v>10</v>
+      </c>
+      <c r="C359">
+        <v>1</v>
+      </c>
+      <c r="D359">
+        <v>7</v>
+      </c>
+      <c r="E359">
+        <v>36</v>
+      </c>
+      <c r="F359">
+        <v>26</v>
+      </c>
+      <c r="G359">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7">
+      <c r="A360">
+        <v>1</v>
+      </c>
+      <c r="B360">
+        <v>11</v>
+      </c>
+      <c r="C360">
+        <v>10</v>
+      </c>
+      <c r="D360">
+        <v>8</v>
+      </c>
+      <c r="E360">
+        <v>15</v>
+      </c>
+      <c r="F360">
+        <v>22</v>
+      </c>
+      <c r="G360">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7">
+      <c r="A361">
+        <v>10</v>
+      </c>
+      <c r="B361">
+        <v>11</v>
+      </c>
+      <c r="C361">
+        <v>1</v>
+      </c>
+      <c r="D361">
+        <v>7</v>
+      </c>
+      <c r="E361">
+        <v>28</v>
+      </c>
+      <c r="F361">
+        <v>22</v>
+      </c>
+      <c r="G361">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7">
+      <c r="A362">
+        <v>25</v>
+      </c>
+      <c r="B362">
+        <v>14</v>
+      </c>
+      <c r="C362">
+        <v>5</v>
+      </c>
+      <c r="D362">
+        <v>2</v>
+      </c>
+      <c r="E362">
+        <v>26</v>
+      </c>
+      <c r="F362">
+        <v>29</v>
+      </c>
+      <c r="G362">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7">
+      <c r="A363">
+        <v>12</v>
+      </c>
+      <c r="B363">
+        <v>15</v>
+      </c>
+      <c r="C363">
+        <v>5</v>
+      </c>
+      <c r="D363">
+        <v>2</v>
+      </c>
+      <c r="E363">
+        <v>26</v>
+      </c>
+      <c r="F363">
+        <v>29</v>
+      </c>
+      <c r="G363">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7">
+      <c r="A364">
+        <v>7</v>
+      </c>
+      <c r="B364">
+        <v>16</v>
+      </c>
+      <c r="C364">
+        <v>6</v>
+      </c>
+      <c r="D364">
+        <v>8</v>
+      </c>
+      <c r="E364">
+        <v>28</v>
+      </c>
+      <c r="F364">
+        <v>22</v>
+      </c>
+      <c r="G364">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7">
+      <c r="A365">
+        <v>38</v>
+      </c>
+      <c r="B365">
+        <v>18</v>
+      </c>
+      <c r="C365">
+        <v>20</v>
+      </c>
+      <c r="D365">
+        <v>32</v>
+      </c>
+      <c r="E365">
+        <v>9</v>
+      </c>
+      <c r="F365">
+        <v>3</v>
+      </c>
+      <c r="G365">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7">
+      <c r="A366">
+        <v>21</v>
+      </c>
+      <c r="B366">
+        <v>19</v>
+      </c>
+      <c r="C366">
+        <v>20</v>
+      </c>
+      <c r="D366">
+        <v>32</v>
+      </c>
+      <c r="E366">
+        <v>3</v>
+      </c>
+      <c r="F366">
+        <v>4</v>
+      </c>
+      <c r="G366">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7">
+      <c r="A367">
+        <v>32</v>
+      </c>
+      <c r="B367">
+        <v>19</v>
+      </c>
+      <c r="C367">
+        <v>18</v>
+      </c>
+      <c r="D367">
+        <v>31</v>
+      </c>
+      <c r="E367">
+        <v>9</v>
+      </c>
+      <c r="F367">
+        <v>12</v>
+      </c>
+      <c r="G367">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7">
+      <c r="A368">
+        <v>19</v>
+      </c>
+      <c r="B368">
+        <v>20</v>
+      </c>
+      <c r="C368">
+        <v>32</v>
+      </c>
+      <c r="D368">
+        <v>18</v>
+      </c>
+      <c r="E368">
+        <v>15</v>
+      </c>
+      <c r="F368">
+        <v>9</v>
+      </c>
+      <c r="G368">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7">
+      <c r="A369">
+        <v>34</v>
+      </c>
+      <c r="B369">
+        <v>23</v>
+      </c>
+      <c r="C369">
+        <v>22</v>
+      </c>
+      <c r="D369">
+        <v>28</v>
+      </c>
+      <c r="E369">
+        <v>1</v>
+      </c>
+      <c r="F369">
+        <v>9</v>
+      </c>
+      <c r="G369">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7">
+      <c r="A370">
+        <v>22</v>
+      </c>
+      <c r="B370">
+        <v>23</v>
+      </c>
+      <c r="C370">
+        <v>34</v>
+      </c>
+      <c r="D370">
+        <v>28</v>
+      </c>
+      <c r="E370">
+        <v>1</v>
+      </c>
+      <c r="F370">
+        <v>9</v>
+      </c>
+      <c r="G370">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7">
+      <c r="A371">
+        <v>23</v>
+      </c>
+      <c r="B371">
+        <v>24</v>
+      </c>
+      <c r="C371">
+        <v>18</v>
+      </c>
+      <c r="D371">
+        <v>32</v>
+      </c>
+      <c r="E371">
+        <v>29</v>
+      </c>
+      <c r="F371">
+        <v>1</v>
+      </c>
+      <c r="G371">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7">
+      <c r="A372">
+        <v>37</v>
+      </c>
+      <c r="B372">
+        <v>26</v>
+      </c>
+      <c r="C372">
+        <v>30</v>
+      </c>
+      <c r="D372">
+        <v>35</v>
+      </c>
+      <c r="E372">
+        <v>6</v>
+      </c>
+      <c r="F372">
+        <v>16</v>
+      </c>
+      <c r="G372">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7">
+      <c r="A373">
+        <v>33</v>
+      </c>
+      <c r="B373">
+        <v>27</v>
+      </c>
+      <c r="C373">
+        <v>4</v>
+      </c>
+      <c r="D373">
+        <v>28</v>
+      </c>
+      <c r="E373">
+        <v>29</v>
+      </c>
+      <c r="F373">
+        <v>31</v>
+      </c>
+      <c r="G373">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7">
+      <c r="A374">
+        <v>26</v>
+      </c>
+      <c r="B374">
+        <v>30</v>
+      </c>
+      <c r="C374">
+        <v>35</v>
+      </c>
+      <c r="D374">
+        <v>40</v>
+      </c>
+      <c r="E374">
+        <v>31</v>
+      </c>
+      <c r="F374">
+        <v>15</v>
+      </c>
+      <c r="G374">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7">
+      <c r="A375">
+        <v>35</v>
+      </c>
+      <c r="B375">
+        <v>30</v>
+      </c>
+      <c r="C375">
+        <v>26</v>
+      </c>
+      <c r="D375">
+        <v>40</v>
+      </c>
+      <c r="E375">
+        <v>9</v>
+      </c>
+      <c r="F375">
+        <v>31</v>
+      </c>
+      <c r="G375">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7">
+      <c r="A376">
+        <v>27</v>
+      </c>
+      <c r="B376">
+        <v>31</v>
+      </c>
+      <c r="C376">
+        <v>17</v>
+      </c>
+      <c r="D376">
+        <v>32</v>
+      </c>
+      <c r="E376">
+        <v>26</v>
+      </c>
+      <c r="F376">
+        <v>1</v>
+      </c>
+      <c r="G376">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7">
+      <c r="A377">
+        <v>19</v>
+      </c>
+      <c r="B377">
+        <v>32</v>
+      </c>
+      <c r="C377">
+        <v>18</v>
+      </c>
+      <c r="D377">
+        <v>31</v>
+      </c>
+      <c r="E377">
+        <v>12</v>
+      </c>
+      <c r="F377">
+        <v>15</v>
+      </c>
+      <c r="G377">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7">
+      <c r="A378">
+        <v>18</v>
+      </c>
+      <c r="B378">
+        <v>19</v>
+      </c>
+      <c r="C378">
+        <v>20</v>
+      </c>
+      <c r="D378">
+        <v>19</v>
+      </c>
+      <c r="E378">
+        <v>15</v>
+      </c>
+      <c r="F378">
+        <v>9</v>
+      </c>
+      <c r="G378">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7">
+      <c r="A379">
+        <v>31</v>
+      </c>
+      <c r="B379">
+        <v>32</v>
+      </c>
+      <c r="C379">
+        <v>17</v>
+      </c>
+      <c r="D379">
+        <v>27</v>
+      </c>
+      <c r="E379">
+        <v>29</v>
+      </c>
+      <c r="F379">
+        <v>15</v>
+      </c>
+      <c r="G379">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7">
+      <c r="A380">
+        <v>17</v>
+      </c>
+      <c r="B380">
+        <v>32</v>
+      </c>
+      <c r="C380">
+        <v>31</v>
+      </c>
+      <c r="D380">
+        <v>27</v>
+      </c>
+      <c r="E380">
+        <v>26</v>
+      </c>
+      <c r="F380">
+        <v>29</v>
+      </c>
+      <c r="G380">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7">
+      <c r="A381">
+        <v>20</v>
+      </c>
+      <c r="B381">
+        <v>19</v>
+      </c>
+      <c r="C381">
+        <v>18</v>
+      </c>
+      <c r="D381">
+        <v>19</v>
+      </c>
+      <c r="E381">
+        <v>15</v>
+      </c>
+      <c r="F381">
+        <v>9</v>
+      </c>
+      <c r="G381">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7">
+      <c r="A382">
+        <v>28</v>
+      </c>
+      <c r="B382">
+        <v>33</v>
+      </c>
+      <c r="C382">
+        <v>24</v>
+      </c>
+      <c r="D382">
+        <v>25</v>
+      </c>
+      <c r="E382">
+        <v>2</v>
+      </c>
+      <c r="F382">
+        <v>29</v>
+      </c>
+      <c r="G382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7">
+      <c r="A383">
+        <v>24</v>
+      </c>
+      <c r="B383">
+        <v>33</v>
+      </c>
+      <c r="C383">
+        <v>28</v>
+      </c>
+      <c r="D383">
+        <v>25</v>
+      </c>
+      <c r="E383">
+        <v>1</v>
+      </c>
+      <c r="F383">
+        <v>2</v>
+      </c>
+      <c r="G383">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7">
+      <c r="A384">
+        <v>36</v>
+      </c>
+      <c r="B384">
+        <v>35</v>
+      </c>
+      <c r="C384">
+        <v>37</v>
+      </c>
+      <c r="D384">
+        <v>30</v>
+      </c>
+      <c r="E384">
+        <v>11</v>
+      </c>
+      <c r="F384">
+        <v>4</v>
+      </c>
+      <c r="G384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7">
+      <c r="A385">
+        <v>39</v>
+      </c>
+      <c r="B385">
+        <v>37</v>
+      </c>
+      <c r="C385">
+        <v>30</v>
+      </c>
+      <c r="D385">
+        <v>36</v>
+      </c>
+      <c r="E385">
+        <v>1</v>
+      </c>
+      <c r="F385">
+        <v>3</v>
+      </c>
+      <c r="G385">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7">
+      <c r="A386">
+        <v>29</v>
+      </c>
+      <c r="B386">
+        <v>36</v>
+      </c>
+      <c r="C386">
+        <v>22</v>
+      </c>
+      <c r="D386">
+        <v>37</v>
+      </c>
+      <c r="E386">
+        <v>13</v>
+      </c>
+      <c r="F386">
+        <v>11</v>
+      </c>
+      <c r="G386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7">
+      <c r="A387">
+        <v>40</v>
+      </c>
+      <c r="B387">
+        <v>37</v>
+      </c>
+      <c r="C387">
+        <v>38</v>
+      </c>
+      <c r="D387">
+        <v>35</v>
+      </c>
+      <c r="E387">
+        <v>1</v>
+      </c>
+      <c r="F387">
+        <v>27</v>
+      </c>
+      <c r="G387">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7">
+      <c r="A388">
+        <v>30</v>
+      </c>
+      <c r="B388">
+        <v>37</v>
+      </c>
+      <c r="C388">
+        <v>35</v>
+      </c>
+      <c r="D388">
+        <v>36</v>
+      </c>
+      <c r="E388">
+        <v>3</v>
+      </c>
+      <c r="F388">
+        <v>1</v>
+      </c>
+      <c r="G388">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A153:G192">
-    <sortCondition ref="A153:A192"/>
+  <sortState ref="A55:G95">
+    <sortCondition ref="A55:A95"/>
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="A151:B151"/>
